--- a/KYC Update/Consignor/UID.xlsx
+++ b/KYC Update/Consignor/UID.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Updated successfully</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-12 12:03:15</t>
+          <t>2025-03-13 10:58:15</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Updated successfully</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-12 12:03:20</t>
+          <t>2025-03-13 10:58:23</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Updated successfully</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-12 12:03:24</t>
+          <t>2025-03-13 10:58:31</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Updated successfully</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-12 12:03:28</t>
+          <t>2025-03-13 10:58:37</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Updated successfully</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-12 12:03:32</t>
+          <t>2025-03-13 10:58:44</t>
         </is>
       </c>
     </row>

--- a/KYC Update/Consignor/UID.xlsx
+++ b/KYC Update/Consignor/UID.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-13 10:58:15</t>
+          <t>2025-03-13 15:50:36</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-13 10:58:23</t>
+          <t>2025-03-13 15:41:51</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-13 10:58:31</t>
+          <t>2025-03-13 15:41:58</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-13 10:58:37</t>
+          <t>2025-03-13 15:42:05</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-13 10:58:44</t>
+          <t>2025-03-13 15:42:16</t>
         </is>
       </c>
     </row>
